--- a/results/mp/tinybert/home-spam/confidence/42/stop-words-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/42/stop-words-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="126">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,9 +52,6 @@
     <t>disappointed</t>
   </si>
   <si>
-    <t>however</t>
-  </si>
-  <si>
     <t>returned</t>
   </si>
   <si>
@@ -64,15 +61,18 @@
     <t>negative</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>loves</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>beautifully</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>excellent</t>
   </si>
   <si>
@@ -82,187 +82,199 @@
     <t>love</t>
   </si>
   <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>favorite</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>fantastic</t>
-  </si>
-  <si>
     <t>beautiful</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
     <t>pleased</t>
   </si>
   <si>
+    <t>apples</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>son</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>wedding</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
     <t>loved</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>christmas</t>
   </si>
   <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>husband</t>
   </si>
   <si>
     <t>cakes</t>
   </si>
   <si>
-    <t>apples</t>
-  </si>
-  <si>
-    <t>son</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>wedding</t>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>mas</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>wife</t>
   </si>
   <si>
     <t>family</t>
   </si>
   <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>potatoes</t>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>cheese</t>
   </si>
   <si>
     <t>pie</t>
   </si>
   <si>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
     <t>rice</t>
   </si>
   <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>bun</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>mas</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
     <t>ever</t>
   </si>
   <si>
     <t>handy</t>
   </si>
   <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>friends</t>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>cooks</t>
   </si>
   <si>
     <t>ze</t>
   </si>
   <si>
-    <t>bread</t>
-  </si>
-  <si>
     <t>pop</t>
   </si>
   <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
     <t>perfectly</t>
   </si>
   <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>nicely</t>
+  </si>
+  <si>
+    <t>popcorn</t>
+  </si>
+  <si>
+    <t>cookies</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>cooks</t>
-  </si>
-  <si>
-    <t>popcorn</t>
-  </si>
-  <si>
-    <t>nicely</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>home</t>
+  </si>
+  <si>
+    <t>cream</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>fan</t>
+  </si>
+  <si>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>baking</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>w</t>
   </si>
   <si>
     <t>tea</t>
   </si>
   <si>
-    <t>fan</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>baking</t>
-  </si>
-  <si>
-    <t>cream</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>cook</t>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>dish</t>
+  </si>
+  <si>
+    <t>ice</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>keeps</t>
   </si>
   <si>
     <t>gr</t>
@@ -271,31 +283,22 @@
     <t>new</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>highly</t>
+    <t>bowl</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>many</t>
   </si>
   <si>
     <t>always</t>
   </si>
   <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>maker</t>
-  </si>
-  <si>
-    <t>bowl</t>
-  </si>
-  <si>
-    <t>making</t>
+    <t>anyone</t>
+  </si>
+  <si>
+    <t>brand</t>
   </si>
   <si>
     <t>well</t>
@@ -304,94 +307,88 @@
     <t>works</t>
   </si>
   <si>
-    <t>anyone</t>
-  </si>
-  <si>
-    <t>many</t>
+    <t>wish</t>
   </si>
   <si>
     <t>far</t>
   </si>
   <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
     <t>exactly</t>
   </si>
   <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>dish</t>
+    <t>recommend</t>
   </si>
   <si>
     <t>every</t>
   </si>
   <si>
-    <t>little</t>
+    <t>last</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>bought</t>
   </si>
   <si>
     <t>big</t>
   </si>
   <si>
-    <t>recommend</t>
-  </si>
-  <si>
     <t>also</t>
   </si>
   <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
     <t>hot</t>
   </si>
   <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>fast</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
     <t>quality</t>
   </si>
   <si>
     <t>clean</t>
   </si>
   <si>
+    <t>job</t>
+  </si>
+  <si>
     <t>really</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>one</t>
   </si>
   <si>
-    <t>job</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
     <t>buy</t>
   </si>
   <si>
+    <t>made</t>
+  </si>
+  <si>
     <t>time</t>
   </si>
   <si>
-    <t>made</t>
-  </si>
-  <si>
     <t>used</t>
   </si>
   <si>
     <t>use</t>
+  </si>
+  <si>
+    <t>product</t>
   </si>
   <si>
     <t>positive</t>
@@ -760,10 +757,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -821,13 +818,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.896551724137931</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C3">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -839,19 +836,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3">
-        <v>0.967741935483871</v>
+        <v>0.9655172413793104</v>
       </c>
       <c r="L3">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="M3">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -863,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -892,16 +889,16 @@
         <v>11</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K4">
-        <v>0.9473684210526315</v>
+        <v>0.9247311827956989</v>
       </c>
       <c r="L4">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="M4">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -913,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -921,37 +918,37 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.425</v>
+        <v>0.4</v>
       </c>
       <c r="C5">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>24</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5">
-        <v>17</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>23</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K5">
-        <v>0.9310344827586207</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L5">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="M5">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -963,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -971,13 +968,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.248062015503876</v>
+        <v>0.2635658914728682</v>
       </c>
       <c r="C6">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D6">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -989,19 +986,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K6">
-        <v>0.90625</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L6">
-        <v>116</v>
+        <v>17</v>
       </c>
       <c r="M6">
-        <v>116</v>
+        <v>17</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1013,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1021,37 +1018,37 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.2435897435897436</v>
+        <v>0.1717171717171717</v>
       </c>
       <c r="C7">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>17</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>82</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D7">
-        <v>19</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>59</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="K7">
-        <v>0.8695652173913043</v>
+        <v>0.890625</v>
       </c>
       <c r="L7">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="M7">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1063,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1071,13 +1068,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.1818181818181818</v>
+        <v>0.0918918918918919</v>
       </c>
       <c r="C8">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1089,69 +1086,45 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>81</v>
+        <v>168</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8">
+        <v>0.8840579710144928</v>
+      </c>
+      <c r="L8">
+        <v>61</v>
+      </c>
+      <c r="M8">
+        <v>61</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="J9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K8">
-        <v>0.8606811145510835</v>
-      </c>
-      <c r="L8">
-        <v>556</v>
-      </c>
-      <c r="M8">
-        <v>556</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.1135135135135135</v>
-      </c>
-      <c r="C9">
-        <v>21</v>
-      </c>
-      <c r="D9">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>164</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="K9">
-        <v>0.85</v>
+        <v>0.8297213622291022</v>
       </c>
       <c r="L9">
-        <v>17</v>
+        <v>536</v>
       </c>
       <c r="M9">
-        <v>17</v>
+        <v>536</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1163,21 +1136,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K10">
-        <v>0.8478260869565217</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="L10">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="M10">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1189,21 +1162,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K11">
-        <v>0.7692307692307693</v>
+        <v>0.8</v>
       </c>
       <c r="L11">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="M11">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1215,21 +1188,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K12">
-        <v>0.7272727272727273</v>
+        <v>0.8</v>
       </c>
       <c r="L12">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="M12">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1241,21 +1214,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K13">
-        <v>0.7111111111111111</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="L13">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M13">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1267,12 +1240,12 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K14">
         <v>0.7012987012987013</v>
@@ -1298,16 +1271,16 @@
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K15">
-        <v>0.6883116883116883</v>
+        <v>0.7012987012987013</v>
       </c>
       <c r="L15">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M15">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1319,21 +1292,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K16">
-        <v>0.647887323943662</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="L16">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="M16">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1345,21 +1318,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K17">
-        <v>0.6470588235294118</v>
+        <v>0.6438356164383562</v>
       </c>
       <c r="L17">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M17">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1371,21 +1344,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K18">
-        <v>0.6438356164383562</v>
+        <v>0.6410256410256411</v>
       </c>
       <c r="L18">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="M18">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1397,12 +1370,12 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K19">
         <v>0.6338983050847458</v>
@@ -1428,16 +1401,16 @@
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K20">
-        <v>0.6332263242375602</v>
+        <v>0.6326530612244898</v>
       </c>
       <c r="L20">
-        <v>789</v>
+        <v>31</v>
       </c>
       <c r="M20">
-        <v>789</v>
+        <v>31</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1449,21 +1422,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>457</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K21">
-        <v>0.625</v>
+        <v>0.6324237560192616</v>
       </c>
       <c r="L21">
-        <v>40</v>
+        <v>788</v>
       </c>
       <c r="M21">
-        <v>40</v>
+        <v>788</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1475,21 +1448,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>24</v>
+        <v>458</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K22">
-        <v>0.6153846153846154</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L22">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M22">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1506,16 +1479,16 @@
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K23">
-        <v>0.6153846153846154</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L23">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="M23">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1527,21 +1500,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K24">
-        <v>0.6140350877192983</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L24">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="M24">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1553,21 +1526,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K25">
-        <v>0.6122448979591837</v>
+        <v>0.6197183098591549</v>
       </c>
       <c r="L25">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="M25">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1579,21 +1552,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K26">
-        <v>0.6</v>
+        <v>0.6057142857142858</v>
       </c>
       <c r="L26">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="M26">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1605,21 +1578,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>14</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K27">
-        <v>0.5925925925925926</v>
+        <v>0.6029411764705882</v>
       </c>
       <c r="L27">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="M27">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1631,21 +1604,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K28">
-        <v>0.5846153846153846</v>
+        <v>0.5964912280701754</v>
       </c>
       <c r="L28">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="M28">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1657,21 +1630,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K29">
-        <v>0.5833333333333334</v>
+        <v>0.59375</v>
       </c>
       <c r="L29">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="M29">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1683,21 +1656,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K30">
-        <v>0.5828571428571429</v>
+        <v>0.5873015873015873</v>
       </c>
       <c r="L30">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="M30">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1709,21 +1682,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>73</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K31">
-        <v>0.5694444444444444</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="L31">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="M31">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1735,21 +1708,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K32">
-        <v>0.5396825396825397</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L32">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="M32">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1761,21 +1734,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K33">
-        <v>0.5384615384615384</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L33">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M33">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1787,21 +1760,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K34">
-        <v>0.5294117647058824</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L34">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="M34">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1813,21 +1786,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K35">
-        <v>0.5285714285714286</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="L35">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="M35">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1839,21 +1812,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>33</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K36">
-        <v>0.5096153846153846</v>
+        <v>0.5</v>
       </c>
       <c r="L36">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M36">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1865,21 +1838,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K37">
-        <v>0.5</v>
+        <v>0.4939759036144578</v>
       </c>
       <c r="L37">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="M37">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1891,21 +1864,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K38">
-        <v>0.4871794871794872</v>
+        <v>0.4923076923076923</v>
       </c>
       <c r="L38">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="M38">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1917,21 +1890,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>60</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K39">
-        <v>0.4848484848484849</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="L39">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="M39">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1943,12 +1916,12 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K40">
         <v>0.4730538922155689</v>
@@ -1974,16 +1947,16 @@
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K41">
-        <v>0.4586466165413534</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="L41">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="M41">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1995,21 +1968,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>72</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K42">
-        <v>0.45</v>
+        <v>0.4586466165413534</v>
       </c>
       <c r="L42">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="M42">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2021,21 +1994,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>22</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K43">
-        <v>0.4457831325301205</v>
+        <v>0.425</v>
       </c>
       <c r="L43">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="M43">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2047,21 +2020,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K44">
-        <v>0.4444444444444444</v>
+        <v>0.41</v>
       </c>
       <c r="L44">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="M44">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2073,21 +2046,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>20</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K45">
-        <v>0.4358974358974359</v>
+        <v>0.4081632653061225</v>
       </c>
       <c r="L45">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M45">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2099,21 +2072,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K46">
-        <v>0.4320987654320987</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="L46">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M46">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2125,21 +2098,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K47">
-        <v>0.43</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="L47">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="M47">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2151,21 +2124,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K48">
-        <v>0.4285714285714285</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="L48">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M48">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2177,21 +2150,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K49">
+        <v>0.3734939759036144</v>
+      </c>
+      <c r="L49">
         <v>62</v>
       </c>
-      <c r="K49">
-        <v>0.4146341463414634</v>
-      </c>
-      <c r="L49">
-        <v>17</v>
-      </c>
       <c r="M49">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2203,21 +2176,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>24</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K50">
-        <v>0.4098360655737705</v>
+        <v>0.3700980392156863</v>
       </c>
       <c r="L50">
-        <v>25</v>
+        <v>151</v>
       </c>
       <c r="M50">
-        <v>25</v>
+        <v>151</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2229,21 +2202,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>36</v>
+        <v>257</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K51">
-        <v>0.4078947368421053</v>
+        <v>0.3579766536964981</v>
       </c>
       <c r="L51">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="M51">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2255,21 +2228,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>45</v>
+        <v>165</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K52">
-        <v>0.4032258064516129</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="L52">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="M52">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2281,21 +2254,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K53">
-        <v>0.3877551020408163</v>
+        <v>0.3458646616541353</v>
       </c>
       <c r="L53">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="M53">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2307,21 +2280,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>30</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K54">
-        <v>0.3815789473684211</v>
+        <v>0.3392857142857143</v>
       </c>
       <c r="L54">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="M54">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2333,21 +2306,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K55">
-        <v>0.375</v>
+        <v>0.3289473684210527</v>
       </c>
       <c r="L55">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M55">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2359,21 +2332,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>35</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K56">
-        <v>0.3734939759036144</v>
+        <v>0.3260869565217391</v>
       </c>
       <c r="L56">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="M56">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2385,21 +2358,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>104</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K57">
-        <v>0.3424124513618677</v>
+        <v>0.3225806451612903</v>
       </c>
       <c r="L57">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="M57">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2411,21 +2384,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>169</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K58">
-        <v>0.3383458646616541</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="L58">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="M58">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2437,21 +2410,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>88</v>
+        <v>38</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K59">
-        <v>0.3260869565217391</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="L59">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M59">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2463,21 +2436,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K60">
-        <v>0.3186274509803921</v>
+        <v>0.2871287128712871</v>
       </c>
       <c r="L60">
-        <v>130</v>
+        <v>29</v>
       </c>
       <c r="M60">
-        <v>130</v>
+        <v>29</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2489,21 +2462,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>278</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K61">
-        <v>0.2877697841726619</v>
+        <v>0.2808219178082192</v>
       </c>
       <c r="L61">
-        <v>40</v>
+        <v>205</v>
       </c>
       <c r="M61">
-        <v>40</v>
+        <v>205</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2515,12 +2488,12 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>99</v>
+        <v>525</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K62">
         <v>0.2777777777777778</v>
@@ -2546,16 +2519,16 @@
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K63">
-        <v>0.2772277227722773</v>
+        <v>0.2702702702702703</v>
       </c>
       <c r="L63">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M63">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2567,21 +2540,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K64">
-        <v>0.2727272727272727</v>
+        <v>0.2685185185185185</v>
       </c>
       <c r="L64">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="M64">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2593,21 +2566,21 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>152</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K65">
-        <v>0.2671232876712329</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="L65">
-        <v>195</v>
+        <v>16</v>
       </c>
       <c r="M65">
-        <v>195</v>
+        <v>16</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2619,21 +2592,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>535</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K66">
-        <v>0.2666666666666667</v>
+        <v>0.2488038277511962</v>
       </c>
       <c r="L66">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="M66">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2645,21 +2618,21 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>44</v>
+        <v>157</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K67">
-        <v>0.2647058823529412</v>
+        <v>0.232508073196986</v>
       </c>
       <c r="L67">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="M67">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2671,21 +2644,21 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>50</v>
+        <v>713</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K68">
-        <v>0.2588235294117647</v>
+        <v>0.2235294117647059</v>
       </c>
       <c r="L68">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M68">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2697,21 +2670,21 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K69">
-        <v>0.25</v>
+        <v>0.223021582733813</v>
       </c>
       <c r="L69">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M69">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2723,21 +2696,21 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>81</v>
+        <v>108</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K70">
-        <v>0.2380952380952381</v>
+        <v>0.2162162162162162</v>
       </c>
       <c r="L70">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M70">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2749,21 +2722,21 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K71">
-        <v>0.2214765100671141</v>
+        <v>0.2110091743119266</v>
       </c>
       <c r="L71">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="M71">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2775,21 +2748,21 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>116</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K72">
-        <v>0.2163616792249731</v>
+        <v>0.2065217391304348</v>
       </c>
       <c r="L72">
-        <v>201</v>
+        <v>19</v>
       </c>
       <c r="M72">
-        <v>201</v>
+        <v>19</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2801,21 +2774,21 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>728</v>
+        <v>73</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K73">
-        <v>0.2163009404388715</v>
+        <v>0.2037617554858934</v>
       </c>
       <c r="L73">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="M73">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2827,21 +2800,21 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K74">
-        <v>0.2162162162162162</v>
+        <v>0.1986754966887417</v>
       </c>
       <c r="L74">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="M74">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -2853,21 +2826,21 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>87</v>
+        <v>121</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K75">
-        <v>0.2162162162162162</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="L75">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M75">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -2879,21 +2852,21 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K76">
-        <v>0.2023809523809524</v>
+        <v>0.1879194630872483</v>
       </c>
       <c r="L76">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="M76">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -2905,21 +2878,21 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>67</v>
+        <v>121</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K77">
-        <v>0.1920529801324503</v>
+        <v>0.186046511627907</v>
       </c>
       <c r="L77">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="M77">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -2931,21 +2904,21 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>122</v>
+        <v>70</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K78">
-        <v>0.1882352941176471</v>
+        <v>0.18</v>
       </c>
       <c r="L78">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M78">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -2957,21 +2930,21 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K79">
-        <v>0.186046511627907</v>
+        <v>0.1794871794871795</v>
       </c>
       <c r="L79">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M79">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -2983,21 +2956,21 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>70</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K80">
-        <v>0.18</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="L80">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M80">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -3009,21 +2982,21 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K81">
-        <v>0.1662404092071611</v>
+        <v>0.1720430107526882</v>
       </c>
       <c r="L81">
-        <v>130</v>
+        <v>16</v>
       </c>
       <c r="M81">
-        <v>130</v>
+        <v>16</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -3035,21 +3008,21 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>652</v>
+        <v>77</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K82">
-        <v>0.1655629139072848</v>
+        <v>0.1717171717171717</v>
       </c>
       <c r="L82">
-        <v>125</v>
+        <v>17</v>
       </c>
       <c r="M82">
-        <v>125</v>
+        <v>17</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -3061,21 +3034,21 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>630</v>
+        <v>82</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K83">
-        <v>0.1612903225806452</v>
+        <v>0.1662404092071611</v>
       </c>
       <c r="L83">
-        <v>15</v>
+        <v>130</v>
       </c>
       <c r="M83">
-        <v>15</v>
+        <v>130</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -3087,21 +3060,21 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>78</v>
+        <v>652</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K84">
-        <v>0.1538461538461539</v>
+        <v>0.1602649006622517</v>
       </c>
       <c r="L84">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="M84">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="N84">
         <v>1</v>
@@ -3113,21 +3086,21 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>99</v>
+        <v>634</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K85">
-        <v>0.1475409836065574</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="L85">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M85">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N85">
         <v>1</v>
@@ -3139,21 +3112,21 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K86">
-        <v>0.1415929203539823</v>
+        <v>0.1475409836065574</v>
       </c>
       <c r="L86">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M86">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N86">
         <v>1</v>
@@ -3165,21 +3138,21 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="87" spans="10:17">
       <c r="J87" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K87">
-        <v>0.1384615384615385</v>
+        <v>0.1472868217054264</v>
       </c>
       <c r="L87">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M87">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N87">
         <v>1</v>
@@ -3191,21 +3164,21 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="88" spans="10:17">
       <c r="J88" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K88">
-        <v>0.1376146788990826</v>
+        <v>0.1374570446735395</v>
       </c>
       <c r="L88">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="M88">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="N88">
         <v>1</v>
@@ -3217,47 +3190,47 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>94</v>
+        <v>251</v>
       </c>
     </row>
     <row r="89" spans="10:17">
       <c r="J89" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K89">
-        <v>0.1341463414634146</v>
+        <v>0.1339285714285714</v>
       </c>
       <c r="L89">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="M89">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N89">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O89">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q89">
-        <v>142</v>
+        <v>97</v>
       </c>
     </row>
     <row r="90" spans="10:17">
       <c r="J90" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K90">
-        <v>0.134020618556701</v>
+        <v>0.1320754716981132</v>
       </c>
       <c r="L90">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="M90">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N90">
         <v>1</v>
@@ -3269,21 +3242,21 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>252</v>
+        <v>322</v>
       </c>
     </row>
     <row r="91" spans="10:17">
       <c r="J91" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K91">
-        <v>0.1333333333333333</v>
+        <v>0.1280487804878049</v>
       </c>
       <c r="L91">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M91">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N91">
         <v>1</v>
@@ -3300,16 +3273,16 @@
     </row>
     <row r="92" spans="10:17">
       <c r="J92" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K92">
-        <v>0.1293800539083558</v>
+        <v>0.1226993865030675</v>
       </c>
       <c r="L92">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="M92">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="N92">
         <v>1</v>
@@ -3321,47 +3294,47 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>323</v>
+        <v>143</v>
       </c>
     </row>
     <row r="93" spans="10:17">
       <c r="J93" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K93">
-        <v>0.1287128712871287</v>
+        <v>0.1143911439114391</v>
       </c>
       <c r="L93">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M93">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="N93">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O93">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q93">
-        <v>176</v>
+        <v>240</v>
       </c>
     </row>
     <row r="94" spans="10:17">
       <c r="J94" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K94">
-        <v>0.1260504201680672</v>
+        <v>0.1129943502824859</v>
       </c>
       <c r="L94">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M94">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N94">
         <v>1</v>
@@ -3373,21 +3346,21 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>208</v>
+        <v>157</v>
       </c>
     </row>
     <row r="95" spans="10:17">
       <c r="J95" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K95">
-        <v>0.121654501216545</v>
+        <v>0.1119221411192214</v>
       </c>
       <c r="L95">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M95">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N95">
         <v>1</v>
@@ -3399,21 +3372,21 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="96" spans="10:17">
       <c r="J96" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K96">
-        <v>0.1162790697674419</v>
+        <v>0.1090909090909091</v>
       </c>
       <c r="L96">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M96">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N96">
         <v>1</v>
@@ -3425,15 +3398,15 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>114</v>
+        <v>147</v>
       </c>
     </row>
     <row r="97" spans="10:17">
       <c r="J97" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K97">
-        <v>0.1129943502824859</v>
+        <v>0.09852216748768473</v>
       </c>
       <c r="L97">
         <v>20</v>
@@ -3451,21 +3424,21 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>157</v>
+        <v>183</v>
       </c>
     </row>
     <row r="98" spans="10:17">
       <c r="J98" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K98">
-        <v>0.1113636363636364</v>
+        <v>0.09318181818181819</v>
       </c>
       <c r="L98">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="M98">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="N98">
         <v>1</v>
@@ -3477,21 +3450,21 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>391</v>
+        <v>399</v>
       </c>
     </row>
     <row r="99" spans="10:17">
       <c r="J99" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K99">
-        <v>0.1107011070110701</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="L99">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="M99">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N99">
         <v>1</v>
@@ -3503,21 +3476,21 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="100" spans="10:17">
       <c r="J100" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K100">
-        <v>0.1037037037037037</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="L100">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="M100">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="N100">
         <v>1</v>
@@ -3529,21 +3502,21 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>242</v>
+        <v>217</v>
       </c>
     </row>
     <row r="101" spans="10:17">
       <c r="J101" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K101">
-        <v>0.1002386634844869</v>
+        <v>0.08591885441527446</v>
       </c>
       <c r="L101">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="M101">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="N101">
         <v>1</v>
@@ -3555,21 +3528,21 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>377</v>
+        <v>383</v>
       </c>
     </row>
     <row r="102" spans="10:17">
       <c r="J102" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K102">
-        <v>0.08114035087719298</v>
+        <v>0.08552631578947369</v>
       </c>
       <c r="L102">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M102">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N102">
         <v>1</v>
@@ -3581,21 +3554,21 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="103" spans="10:17">
       <c r="J103" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K103">
-        <v>0.07377049180327869</v>
+        <v>0.07258064516129033</v>
       </c>
       <c r="L103">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="M103">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="N103">
         <v>1</v>
@@ -3607,73 +3580,73 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>339</v>
+        <v>230</v>
       </c>
     </row>
     <row r="104" spans="10:17">
       <c r="J104" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K104">
-        <v>0.06349206349206349</v>
+        <v>0.06010928961748634</v>
       </c>
       <c r="L104">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="M104">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="N104">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O104">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q104">
-        <v>1003</v>
+        <v>344</v>
       </c>
     </row>
     <row r="105" spans="10:17">
       <c r="J105" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K105">
-        <v>0.06048387096774194</v>
+        <v>0.054519368723099</v>
       </c>
       <c r="L105">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="M105">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="N105">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O105">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q105">
-        <v>233</v>
+        <v>659</v>
       </c>
     </row>
     <row r="106" spans="10:17">
       <c r="J106" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K106">
-        <v>0.06025824964131994</v>
+        <v>0.05228758169934641</v>
       </c>
       <c r="L106">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="M106">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="N106">
         <v>0.98</v>
@@ -3685,47 +3658,47 @@
         <v>1</v>
       </c>
       <c r="Q106">
-        <v>655</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="107" spans="10:17">
       <c r="J107" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K107">
-        <v>0.05494505494505494</v>
+        <v>0.05076142131979695</v>
       </c>
       <c r="L107">
         <v>20</v>
       </c>
       <c r="M107">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N107">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O107">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q107">
-        <v>344</v>
+        <v>374</v>
       </c>
     </row>
     <row r="108" spans="10:17">
       <c r="J108" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K108">
-        <v>0.0532994923857868</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="L108">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M108">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="N108">
         <v>1</v>
@@ -3737,21 +3710,21 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>373</v>
+        <v>396</v>
       </c>
     </row>
     <row r="109" spans="10:17">
       <c r="J109" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K109">
-        <v>0.04428044280442804</v>
+        <v>0.04243542435424354</v>
       </c>
       <c r="L109">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M109">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N109">
         <v>1</v>
@@ -3763,21 +3736,21 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="110" spans="10:17">
       <c r="J110" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K110">
-        <v>0.04347826086956522</v>
+        <v>0.03831417624521073</v>
       </c>
       <c r="L110">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M110">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N110">
         <v>1</v>
@@ -3789,21 +3762,21 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>396</v>
+        <v>502</v>
       </c>
     </row>
     <row r="111" spans="10:17">
       <c r="J111" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K111">
-        <v>0.03071017274472169</v>
+        <v>0.02770562770562771</v>
       </c>
       <c r="L111">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="M111">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="N111">
         <v>0.9399999999999999</v>
@@ -3815,33 +3788,33 @@
         <v>1</v>
       </c>
       <c r="Q111">
-        <v>505</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="112" spans="10:17">
       <c r="J112" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K112">
-        <v>0.02335640138408305</v>
+        <v>0.02091503267973856</v>
       </c>
       <c r="L112">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="M112">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="N112">
-        <v>0.96</v>
+        <v>0.89</v>
       </c>
       <c r="O112">
-        <v>0.04000000000000004</v>
+        <v>0.11</v>
       </c>
       <c r="P112" t="b">
         <v>1</v>
       </c>
       <c r="Q112">
-        <v>1129</v>
+        <v>749</v>
       </c>
     </row>
   </sheetData>
